--- a/02 - MileStone 1/Gantt chart.xlsx
+++ b/02 - MileStone 1/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui_c\Desktop\PECI\PECI\Peci\02 - MileStone 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F610585E-4BE5-41A3-ADDE-61E400B16242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052695B-3370-4369-ABF4-78CB045B31CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>JANUARY</t>
   </si>
@@ -934,6 +934,39 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -946,12 +979,39 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,10 +1030,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,82 +1057,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4538,9 +4538,9 @@
   </sheetPr>
   <dimension ref="A1:IX30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="BH16" sqref="BH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4812,78 +4812,76 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
-        <v>27</v>
-      </c>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:258" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="94" t="s">
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="97" t="s">
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="95" t="s">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="94" t="s">
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="95" t="s">
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="97" t="s">
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="100"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="61"/>
     </row>
     <row r="4" spans="1:258" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="87"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="46">
         <v>6</v>
       </c>
@@ -5245,7 +5243,7 @@
       <c r="AU6" s="11"/>
     </row>
     <row r="7" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="14"/>
@@ -5295,7 +5293,7 @@
       <c r="AU7" s="17"/>
     </row>
     <row r="8" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -5343,7 +5341,7 @@
       <c r="AU8" s="17"/>
     </row>
     <row r="9" spans="1:258" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="88"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -5441,7 +5439,7 @@
       <c r="AU10" s="11"/>
     </row>
     <row r="11" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="70" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="14"/>
@@ -5491,7 +5489,7 @@
       <c r="AU11" s="17"/>
     </row>
     <row r="12" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -5539,7 +5537,7 @@
       <c r="AU12" s="17"/>
     </row>
     <row r="13" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -5587,7 +5585,7 @@
       <c r="AU13" s="17"/>
     </row>
     <row r="14" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -5635,7 +5633,7 @@
       <c r="AU14" s="17"/>
     </row>
     <row r="15" spans="1:258" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -5733,7 +5731,7 @@
       <c r="AU16" s="11"/>
     </row>
     <row r="17" spans="2:47" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="14"/>
@@ -5783,7 +5781,7 @@
       <c r="AU17" s="17"/>
     </row>
     <row r="18" spans="2:47" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -5831,7 +5829,7 @@
       <c r="AU18" s="17"/>
     </row>
     <row r="19" spans="2:47" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="28"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -5879,7 +5877,7 @@
       <c r="AU19" s="27"/>
     </row>
     <row r="20" spans="2:47" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="62"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -5977,7 +5975,7 @@
       <c r="AU21" s="11"/>
     </row>
     <row r="22" spans="2:47" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="64" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="14"/>
@@ -6027,7 +6025,7 @@
       <c r="AU22" s="17"/>
     </row>
     <row r="23" spans="2:47" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="84"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -6075,7 +6073,7 @@
       <c r="AU23" s="17"/>
     </row>
     <row r="24" spans="2:47" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="85"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -6433,167 +6431,167 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="65" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="68" t="s">
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="77" t="s">
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="79"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="92"/>
+      <c r="BC2" s="92"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="92"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
+      <c r="BJ2" s="93"/>
     </row>
     <row r="3" spans="1:258" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76" t="s">
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93" t="s">
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71" t="s">
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="63" t="s">
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64" t="s">
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64" t="s">
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="81" t="s">
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73" t="s">
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73" t="s">
+      <c r="BB3" s="98"/>
+      <c r="BC3" s="98"/>
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="74"/>
+      <c r="BG3" s="98"/>
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="99"/>
     </row>
     <row r="4" spans="1:258" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="87"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="46">
         <v>6</v>
       </c>
@@ -7006,7 +7004,7 @@
       <c r="BJ6" s="11"/>
     </row>
     <row r="7" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="14"/>
@@ -7071,7 +7069,7 @@
       <c r="BJ7" s="17"/>
     </row>
     <row r="8" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -7134,7 +7132,7 @@
       <c r="BJ8" s="17"/>
     </row>
     <row r="9" spans="1:258" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="88"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -7262,7 +7260,7 @@
       <c r="BJ10" s="11"/>
     </row>
     <row r="11" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="70" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="14"/>
@@ -7327,7 +7325,7 @@
       <c r="BJ11" s="17"/>
     </row>
     <row r="12" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -7390,7 +7388,7 @@
       <c r="BJ12" s="17"/>
     </row>
     <row r="13" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -7453,7 +7451,7 @@
       <c r="BJ13" s="17"/>
     </row>
     <row r="14" spans="1:258" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -7516,7 +7514,7 @@
       <c r="BJ14" s="17"/>
     </row>
     <row r="15" spans="1:258" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -7644,7 +7642,7 @@
       <c r="BJ16" s="11"/>
     </row>
     <row r="17" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="14"/>
@@ -7709,7 +7707,7 @@
       <c r="BJ17" s="17"/>
     </row>
     <row r="18" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -7772,7 +7770,7 @@
       <c r="BJ18" s="17"/>
     </row>
     <row r="19" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="28"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -7835,7 +7833,7 @@
       <c r="BJ19" s="27"/>
     </row>
     <row r="20" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="62"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -7963,7 +7961,7 @@
       <c r="BJ21" s="11"/>
     </row>
     <row r="22" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="64" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="14"/>
@@ -8028,7 +8026,7 @@
       <c r="BJ22" s="17"/>
     </row>
     <row r="23" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="84"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -8091,7 +8089,7 @@
       <c r="BJ23" s="17"/>
     </row>
     <row r="24" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="85"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -8219,7 +8217,7 @@
       <c r="BJ25" s="11"/>
     </row>
     <row r="26" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="75" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="14"/>
@@ -8284,7 +8282,7 @@
       <c r="BJ26" s="17"/>
     </row>
     <row r="27" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="82"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -8347,7 +8345,7 @@
       <c r="BJ27" s="17"/>
     </row>
     <row r="28" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="83"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -8412,6 +8410,15 @@
     <row r="29" spans="2:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AV2:BJ2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="BF3:BJ3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AG3:AK3"/>
@@ -8425,15 +8432,6 @@
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="AV2:BJ2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="BF3:BJ3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
   <pageSetup scale="61" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
